--- a/vtac_uk/DISTINCT_FIELDS_EXCEL.xlsx
+++ b/vtac_uk/DISTINCT_FIELDS_EXCEL.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x_tipo_de_enchufe</t>
+          <t>x_vatios_por_metro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tipo de enchufe</t>
+          <t>Vatios por metro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x_tamano_de_corte</t>
+          <t>x_dimension</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tamaño de corte</t>
+          <t>Dimensión</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x_angulo_de_deteccion</t>
+          <t>x_vision_nocturna</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ángulo de detección</t>
+          <t>Vision nocturna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x_corriente_de_salida</t>
+          <t>x_regulable</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corriente de salida</t>
+          <t>Regulable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x_tamano</t>
+          <t>x_codigo_de_producto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tamaño</t>
+          <t>Código de producto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x_tipo_regulable</t>
+          <t>x_irc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tipo regulable</t>
+          <t>IRC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x_ancho_caja_mm</t>
+          <t>x_cantidad_de_rollo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ancho (Caja) mm</t>
+          <t>Cantidad de rollo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x_tipo_de_bateria</t>
+          <t>x_angulo_de_haz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tipo de Batería</t>
+          <t>Ángulo de haz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x_vision_nocturna</t>
+          <t>x_color_de_la_unidad</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vision nocturna</t>
+          <t>Color de la unidad</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x_corriente_por_metro</t>
+          <t>x_tipo_regulable</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Corriente por metro</t>
+          <t>Tipo regulable</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x_corriente_de_descarga_de_la_bateria</t>
+          <t>x_panel_solar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Corriente de descarga de la batería</t>
+          <t>Panel solar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x_marca_del_conductor</t>
+          <t>x_corriente_de_salida</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marca del conductor</t>
+          <t>Corriente de salida</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x_salida_usb</t>
+          <t>x_corriente_de_carga_de_la_bateria</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Salida USB</t>
+          <t>Corriente de carga de la batería</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,12 +894,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>x_vatios</t>
+          <t>x_angulo_de_deteccion</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vatios</t>
+          <t>Ángulo de detección</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x_temperatura_de_operacion</t>
+          <t>x_larga_vida</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>temperatura de operacion</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x_dimension</t>
+          <t>x_tamano</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dimensión</t>
+          <t>Tamaño</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x_no__de_led</t>
+          <t>x_inicio_instantaneo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No. de LED</t>
+          <t>Inicio instantáneo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x_corriente_de_carga_de_la_bateria</t>
+          <t>x_el_ahorro_de_energia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Corriente de carga de la batería</t>
+          <t>El ahorro de energía</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x_paquete_al_por_menor</t>
+          <t>x_tiempo_de_trabajo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Paquete al por menor</t>
+          <t>Tiempo de trabajo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x_corriente_de_entrada</t>
+          <t>x_lumenes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Corriente de entrada</t>
+          <t>Lúmenes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x_codigo_de_producto</t>
+          <t>x_vatios</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Código de producto</t>
+          <t>vatios</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x_altura_caja_mm</t>
+          <t>x_etiqueta_de_calificacion_energetica</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Altura (Caja) mm</t>
+          <t>Etiqueta de calificación energética</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1182,12 +1182,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x_cantidad_de_caja</t>
+          <t>x_potencia_de_entrada</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cantidad de caja</t>
+          <t>Potencia de entrada</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1214,12 +1214,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x_fp</t>
+          <t>x_corriente_de_descarga_de_la_bateria</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>Corriente de descarga de la batería</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1246,12 +1246,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x_tiempo_de_carga</t>
+          <t>x_corriente_por_metro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tiempo de carga</t>
+          <t>Corriente por metro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x_tiempo_de_retardo</t>
+          <t>x_tension_de_salida</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tiempo de retardo</t>
+          <t>Tensión de salida</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x_vatios_por_metro</t>
+          <t>x_temperatura_del_color</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Vatios por metro</t>
+          <t>Temperatura del color</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x_modelo</t>
+          <t>x_forma</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modelo</t>
+          <t>Forma</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,12 +1406,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_carga_nominal</t>
+          <t>x_tipo_de_sensor</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Carga nominal</t>
+          <t>Tipo de sensor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x_tipo_de_sensor</t>
+          <t>x_distancia_remota</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tipo de sensor</t>
+          <t>Distancia remota</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x_lumenes_por_led</t>
+          <t>x_color_para_web</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lúmenes por LED</t>
+          <t>Color para Web</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x_inicio_instantaneo</t>
+          <t>x_corriente_de_entrada</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Inicio instantáneo</t>
+          <t>Corriente de entrada</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1534,12 +1534,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x_solucion_de_chips_led</t>
+          <t>x_velocidad_de_movimiento_de_deteccion</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Solución de chips LED</t>
+          <t>Velocidad de movimiento de detección</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x_tension_de_salida</t>
+          <t>x_tipo_de_instalacion</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tensión de salida</t>
+          <t>Tipo de instalación</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x_temperatura_del_color</t>
+          <t>x_altura_caja_mm</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Temperatura del color</t>
+          <t>Altura (Caja) mm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1630,12 +1630,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x_enlazable</t>
+          <t>x_ik_rating</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Enlazable</t>
+          <t>IK Rating</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1662,12 +1662,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x_cuadros_por_segundo</t>
+          <t>x_cantidad_de_caja</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cuadros por segundo</t>
+          <t>Cantidad de caja</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x_angulo_de_haz</t>
+          <t>x_fp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ángulo de haz</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1726,12 +1726,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x_clasificacion_del_ip</t>
+          <t>x_luz_ambiental</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Clasificación del IP</t>
+          <t>Luz ambiental</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>x_longitud_de_cable</t>
+          <t>x_carga_nominal</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Longitud de cable</t>
+          <t>Carga nominal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>x_rango_de_deteccion</t>
+          <t>x_aplicacion_compatible</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rango de detección</t>
+          <t>Aplicación compatible</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x_tiempo_de_trabajo</t>
+          <t>x_rango_de_deteccion</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tiempo de trabajo</t>
+          <t>Rango de detección</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x_irc</t>
+          <t>x_unidad_cbm</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>IRC</t>
+          <t>Unidad CBM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_larga_vida</t>
+          <t>x_vatios_de_equivalencia</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Vatios de equivalencia</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>x_color_de_la_unidad</t>
+          <t>x_solucion_de_chips_led</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Color de la unidad</t>
+          <t>Solución de chips LED</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1950,12 +1950,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>x_panel_solar</t>
+          <t>x_tamano_de_corte</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Panel solar</t>
+          <t>Tamaño de corte</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1982,12 +1982,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>x_ik_rating</t>
+          <t>x_clasificacion_del_ip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IK Rating</t>
+          <t>Clasificación del IP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2014,12 +2014,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_compresion_de_video</t>
+          <t>x_sku</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Compresión de video</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2046,12 +2046,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>x_vatios_en_espera_de_emergencia</t>
+          <t>x_tipo_de_bateria</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vatios en espera de emergencia</t>
+          <t>Tipo de Batería</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>x_frecuencia_inalambrica</t>
+          <t>x_cantidad_de_carton</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frecuencia inalámbrica</t>
+          <t>Cantidad de cartón</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2110,12 +2110,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x_hora_de_espera</t>
+          <t>x_modelo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hora de espera</t>
+          <t>Modelo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2142,12 +2142,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>x_unidad_cbm</t>
+          <t>x_sin_destellos</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Unidad CBM</t>
+          <t>Sin destellos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>x_forma</t>
+          <t>x_descripcion</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Forma</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>x_evolucion</t>
+          <t>x_cantidad_de_led_por_metro</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Evolución</t>
+          <t>Cantidad de LED por metro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>x_sku</t>
+          <t>x_distancia_de_transmision</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Distancia de transmisión</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2270,12 +2270,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>x_cantidad_de_led_por_metro</t>
+          <t>x_vatios_en_espera_de_emergencia</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cantidad de LED por metro</t>
+          <t>Vatios en espera de emergencia</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>x_etiqueta_de_calificacion_energetica</t>
+          <t>x_samsung</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Etiqueta de calificación energética</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2334,12 +2334,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>x_luz_ambiental</t>
+          <t>x_ciclos_de_encendido_apagado</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Luz ambiental</t>
+          <t>Ciclos de encendido/apagado</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>x_distancia_de_transmision</t>
+          <t>x_base</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Distancia de transmisión</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>x_ciclos_de_encendido_apagado</t>
+          <t>x_lumenes_por_led</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ciclos de encendido/apagado</t>
+          <t>Lúmenes por LED</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>x_cantidad_de_carton</t>
+          <t>x_tiempo_de_retardo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cantidad de cartón</t>
+          <t>Tiempo de retardo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_velocidad_de_movimiento_de_deteccion</t>
+          <t>x_lumenes_por_metro</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Velocidad de movimiento de detección</t>
+          <t>Lúmenes por metro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_lente</t>
+          <t>x_cuadros_por_segundo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lente</t>
+          <t>Cuadros por segundo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>x_cantidad_de_caja_interna</t>
+          <t>x_salida_usb</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cantidad de caja interna</t>
+          <t>Salida USB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>x_tipo_de_cuerpo</t>
+          <t>x_frecuencia_inalambrica</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tipo de cuerpo</t>
+          <t>Frecuencia inalámbrica</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2590,12 +2590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>x_cantidad_por_palet</t>
+          <t>x_paquete_al_por_menor</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cantidad por palet</t>
+          <t>Paquete al por menor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2622,12 +2622,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>x_color_para_web</t>
+          <t>x_tipo_de_enchufe</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Color para Web</t>
+          <t>Tipo de enchufe</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>x_samsung</t>
+          <t>x_compresion_de_video</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Compresión de video</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2686,12 +2686,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x_el_ahorro_de_energia</t>
+          <t>x_longitud_caja_mm</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>El ahorro de energía</t>
+          <t>Longitud (Caja) mm</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>x_jacobo</t>
+          <t>x_tiempo_de_operacion_de_emergencia</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Jacobo</t>
+          <t>Tiempo de operación de emergencia</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>x_aplicacion_compatible</t>
+          <t>x_ancho_caja_mm</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aplicación compatible</t>
+          <t>Ancho (Caja) mm</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>x_lumenes_por_metro</t>
+          <t>x_temperatura_de_operacion</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lúmenes por metro</t>
+          <t>temperatura de operacion</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2814,12 +2814,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>x_tiempo_de_operacion_de_emergencia</t>
+          <t>x_enlazable</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tiempo de operación de emergencia</t>
+          <t>Enlazable</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2846,12 +2846,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>x_potencia_de_entrada</t>
+          <t>x_url</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Potencia de entrada</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>x_longitud_caja_mm</t>
+          <t>x_tipo_de_cuerpo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Longitud (Caja) mm</t>
+          <t>Tipo de cuerpo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x_tipo_de_chip_led</t>
+          <t>x_longitud_de_cable</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tipo de chip LED</t>
+          <t>Longitud de cable</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2942,12 +2942,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>x_sin_destellos</t>
+          <t>x_evolucion</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sin destellos</t>
+          <t>Evolución</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2974,12 +2974,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>x_codigo_ean</t>
+          <t>x_jacobo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Código EAN</t>
+          <t>Jacobo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>x_lumenes</t>
+          <t>x_no_de_led</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lúmenes</t>
+          <t>No. de LED</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3038,12 +3038,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>x_distancia_remota</t>
+          <t>x_tiempo_de_carga</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Distancia remota</t>
+          <t>Tiempo de carga</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3070,12 +3070,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>x_base</t>
+          <t>x_lente</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>Lente</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3102,12 +3102,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>x_descripcion</t>
+          <t>x_cantidad_de_caja_interna</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>Cantidad de caja interna</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3134,12 +3134,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>x_url</t>
+          <t>x_cantidad_por_palet</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Cantidad por palet</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>x_vatios_de_equivalencia</t>
+          <t>x_hora_de_espera</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Vatios de equivalencia</t>
+          <t>Hora de espera</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3198,12 +3198,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>x_tipo_de_instalacion</t>
+          <t>x_tipo_de_chip_led</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tipo de instalación</t>
+          <t>Tipo de chip LED</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3230,12 +3230,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>x_regulable</t>
+          <t>x_marca_del_conductor</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Regulable</t>
+          <t>Marca del conductor</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3262,12 +3262,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>x_cantidad_de_rollo</t>
+          <t>x_codigo_ean</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cantidad de rollo</t>
+          <t>Código EAN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
